--- a/mixs-templates/Miuvig_plus_combinations/MiuvigSediment.xlsx
+++ b/mixs-templates/Miuvig_plus_combinations/MiuvigSediment.xlsx
@@ -1129,13 +1129,16 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="16">
+  <dataValidations count="18">
     <dataValidation sqref="W2:W1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"commensalism,free living,mutualism,parasitism,symbiotic"</formula1>
     </dataValidation>
     <dataValidation sqref="Y2:Y1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"other,paired,single,vector"</formula1>
     </dataValidation>
+    <dataValidation sqref="Z2:Z1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Finished genome,High-quality draft genome,Medium-quality draft genome,Low-quality draft genome,Genome fragment(s)"</formula1>
+    </dataValidation>
     <dataValidation sqref="AE2:AE1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DNA-free PCR mix,distilled water,empty collection device,empty collection tube,phosphate buffer,sterile swab,sterile syringe"</formula1>
     </dataValidation>
@@ -1162,6 +1165,9 @@
     </dataValidation>
     <dataValidation sqref="BN2:BN1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"bbmap,bowtie,bwa,other"</formula1>
+    </dataValidation>
+    <dataValidation sqref="BP2:BP1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"DNA,dsDNA,ssDNA,RNA,dsRNA,ssRNA,ssRNA (+),ssRNA (-),mixed,uncharacterized"</formula1>
     </dataValidation>
     <dataValidation sqref="BQ2:BQ1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"non-segmented,segmented,undetermined"</formula1>
